--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42704.28618539659</v>
+        <v>-42704.28618539657</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26316,7 @@
         <v>6872.430125828972</v>
       </c>
       <c r="C2" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="D2" t="n">
         <v>6872.430125828972</v>
@@ -26323,13 +26325,13 @@
         <v>6872.430125828973</v>
       </c>
       <c r="F2" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="G2" t="n">
         <v>6872.430125828972</v>
       </c>
       <c r="H2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828974</v>
       </c>
       <c r="I2" t="n">
         <v>6872.430125828972</v>
@@ -26341,19 +26343,19 @@
         <v>6872.430125828972</v>
       </c>
       <c r="L2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="M2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="N2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="O2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="P2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
     </row>
     <row r="3">
@@ -26531,13 +26533,13 @@
         <v>5890.654393567692</v>
       </c>
       <c r="F6" t="n">
-        <v>5890.654393567691</v>
+        <v>5890.654393567692</v>
       </c>
       <c r="G6" t="n">
         <v>5890.654393567691</v>
       </c>
       <c r="H6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.654393567693</v>
       </c>
       <c r="I6" t="n">
         <v>5890.654393567691</v>
@@ -26549,19 +26551,19 @@
         <v>5890.654393567691</v>
       </c>
       <c r="L6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.654393567691</v>
       </c>
       <c r="M6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.654393567691</v>
       </c>
       <c r="N6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.654393567691</v>
       </c>
       <c r="O6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="P6" t="n">
-        <v>5890.654393567692</v>
+        <v>5890.654393567691</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42704.28618539657</v>
+        <v>-54065.65452702079</v>
       </c>
     </row>
     <row r="7">
@@ -26316,31 +26316,31 @@
         <v>6872.430125828972</v>
       </c>
       <c r="C2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="D2" t="n">
         <v>6872.430125828972</v>
       </c>
       <c r="E2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="F2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="G2" t="n">
         <v>6872.430125828972</v>
       </c>
       <c r="H2" t="n">
-        <v>6872.430125828974</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="I2" t="n">
         <v>6872.430125828972</v>
       </c>
       <c r="J2" t="n">
+        <v>6872.430125828972</v>
+      </c>
+      <c r="K2" t="n">
         <v>6872.430125828973</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6872.430125828972</v>
       </c>
       <c r="L2" t="n">
         <v>6872.430125828972</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27736.94560643231</v>
+        <v>-29094.87470323409</v>
       </c>
       <c r="C6" t="n">
-        <v>-27736.94560643231</v>
+        <v>-29094.87470323409</v>
       </c>
       <c r="D6" t="n">
-        <v>-27736.94560643231</v>
+        <v>-29094.87470323409</v>
       </c>
       <c r="E6" t="n">
-        <v>5890.654393567692</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="F6" t="n">
-        <v>5890.654393567692</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="G6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="H6" t="n">
-        <v>5890.654393567693</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="I6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="J6" t="n">
-        <v>5890.654393567692</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="K6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765912</v>
       </c>
       <c r="L6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="M6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="N6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="O6" t="n">
-        <v>5890.65439356769</v>
+        <v>4532.725296765911</v>
       </c>
       <c r="P6" t="n">
-        <v>5890.654393567691</v>
+        <v>4532.725296765911</v>
       </c>
     </row>
   </sheetData>
